--- a/bd/facilidades.xlsx
+++ b/bd/facilidades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11532"/>
   </bookViews>
   <sheets>
     <sheet name="Facilidades" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>FACILIDADES</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>WF</t>
-  </si>
-  <si>
-    <t>BASICA</t>
   </si>
 </sst>
 </file>
@@ -395,21 +392,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -423,7 +420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -438,7 +435,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -453,7 +450,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -468,7 +465,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -483,7 +480,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -498,7 +495,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -513,7 +510,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -528,7 +525,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -543,7 +540,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -554,21 +551,6 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <f>15000</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11">
         <f>15000</f>
         <v>15000</v>
       </c>
